--- a/검수/AC000120256042D2E_학생_자기보고_응답.xlsx
+++ b/검수/AC000120256042D2E_학생_자기보고_응답.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\검수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FCB28-C425-4145-ACA6-DB706A33473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F6BAC-8CCB-4679-905B-CC09A1D7387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>{"questionChoiceList":[{"questionNo":1,"choiceNo":"3","choiceScore":"3"},{"questionNo":2,"choiceNo":"4","choiceScore":"4"},{"questionNo":3,"choiceNo":"4","choiceScore":"4"},{"questionNo":4,"choiceNo":"3","choiceScore":"3"},{"questionNo":5,"choiceNo":"4","choiceScore":"4"},{"questionNo":6,"choiceNo":"3","choiceScore":"3"},{"questionNo":7,"choiceNo":"5","choiceScore":"5"},{"questionNo":8,"choiceNo":"5","choiceScore":"1"},{"questionNo":9,"choiceNo":"5","choiceScore":"5"},{"questionNo":10,"choiceNo":"5","choiceScore":"1"},{"questionNo":11,"choiceNo":"4","choiceScore":"2"},{"questionNo":12,"choiceNo":"5","choiceScore":"5"},{"questionNo":13,"choiceNo":"5","choiceScore":"5"},{"questionNo":14,"choiceNo":"5","choiceScore":"5"},{"questionNo":15,"choiceNo":"4","choiceScore":"2"},{"questionNo":16,"choiceNo":"5","choiceScore":"5"},{"questionNo":17,"choiceNo":"5","choiceScore":"5"},{"questionNo":18,"choiceNo":"5","choiceScore":"1"},{"questionNo":19,"choiceNo":"5","choiceScore":"5"},{"questionNo":20,"choiceNo":"5","choiceScore":"5"},{"questionNo":21,"choiceNo":"1","choiceScore":"1"},{"questionNo":22,"choiceNo":"1","choiceScore":"1"},{"questionNo":23,"choiceNo":"1","choiceScore":"1"},{"questionNo":24,"choiceNo":"1","choiceScore":"1"},{"questionNo":25,"choiceNo":"1","choiceScore":"5"},{"questionNo":26,"choiceNo":"1","choiceScore":"1"},{"questionNo":27,"choiceNo":"1","choiceScore":"1"},{"questionNo":28,"choiceNo":"1","choiceScore":"5"},{"questionNo":29,"choiceNo":"1","choiceScore":"1"},{"questionNo":30,"choiceNo":"1","choiceScore":"1"},{"questionNo":31,"choiceNo":"5","choiceScore":"5"},{"questionNo":32,"choiceNo":"4","choiceScore":"4"},{"questionNo":33,"choiceNo":"5","choiceScore":"5"},{"questionNo":34,"choiceNo":"5","choiceScore":"5"},{"questionNo":35,"choiceNo":"5","choiceScore":"5"},{"questionNo":36,"choiceNo":"5","choiceScore":"5"},{"questionNo":37,"choiceNo":"5","choiceScore":"5"},{"questionNo":38,"choiceNo":"5","choiceScore":"5"},{"questionNo":39,"choiceNo":"5","choiceScore":"5"},{"questionNo":40,"choiceNo":"5","choiceScore":"5"},{"questionNo":41,"choiceNo":"5","choiceScore":"5"},{"questionNo":42,"choiceNo":"5","choiceScore":"5"},{"questionNo":43,"choiceNo":"5","choiceScore":"5"},{"questionNo":44,"choiceNo":"5","choiceScore":"5"},{"questionNo":45,"choiceNo":"4","choiceScore":"4"},{"questionNo":46,"choiceNo":"5","choiceScore":"5"},{"questionNo":47,"choiceNo":"4","choiceScore":"4"},{"questionNo":48,"choiceNo":"5","choiceScore":"5"},{"questionNo":49,"choiceNo":"5","choiceScore":"5"},{"questionNo":50,"choiceNo":"5","choiceScore":"5"},{"questionNo":51,"choiceNo":"5","choiceScore":"5"},{"questionNo":52,"choiceNo":"5","choiceScore":"5"},{"questionNo":53,"choiceNo":"1","choiceScore":"1"},{"questionNo":54,"choiceNo":"2","choiceScore":"2"},{"questionNo":55,"choiceNo":"2","choiceScore":"2"},{"questionNo":56,"choiceNo":"1","choiceScore":"1"},{"questionNo":57,"choiceNo":"2","choiceScore":"2"},{"questionNo":58,"choiceNo":"1","choiceScore":"1"},{"questionNo":59,"choiceNo":"2","choiceScore":"2"},{"questionNo":60,"choiceNo":"4","choiceScore":"4"},{"questionNo":61,"choiceNo":"4","choiceScore":"4"},{"questionNo":62,"choiceNo":"5","choiceScore":"5"},{"questionNo":63,"choiceNo":"4","choiceScore":"4"},{"questionNo":64,"choiceNo":"4","choiceScore":"4"},{"questionNo":65,"choiceNo":"5","choiceScore":"5"},{"questionNo":66,"choiceNo":"4","choiceScore":"4"},{"questionNo":67,"choiceNo":"4","choiceScore":"4"},{"questionNo":68,"choiceNo":"4","choiceScore":"4"},{"questionNo":69,"choiceNo":"2","choiceScore":"2"},{"questionNo":70,"choiceNo":"2","choiceScore":"2"},{"questionNo":71,"choiceNo":"1","choiceScore":"1"},{"questionNo":72,"choiceNo":"2","choiceScore":"2"},{"questionNo":73,"choiceNo":"1","choiceScore":"1"},{"questionNo":74,"choiceNo":"1","choiceScore":"1"},{"questionNo":75,"choiceNo":"1","choiceScore":"1"}]}</t>
   </si>
   <si>
-    <t>학생 이름</t>
+    <t>학생명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
